--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Rice</t>
+  </si>
+  <si>
+    <t>Bazer</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +430,20 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Bazer</t>
+  </si>
+  <si>
+    <t>piaj</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>kakrol</t>
+  </si>
+  <si>
+    <t>rosun</t>
   </si>
 </sst>
 </file>
@@ -376,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,9 +399,10 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -427,6 +440,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -438,11 +457,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4">
         <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>rosun</t>
+  </si>
+  <si>
+    <t>bazer</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +480,12 @@
       <c r="B5">
         <v>25</v>
       </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>bazer</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +438,12 @@
       <c r="B2">
         <v>30</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -397,7 +397,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +503,12 @@
       <c r="B6">
         <v>15</v>
       </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>rice</t>
+  </si>
+  <si>
+    <t>chal+ mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alu dim dal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lobon </t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +470,12 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
@@ -508,6 +523,30 @@
       </c>
       <c r="G6">
         <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">lobon </t>
+  </si>
+  <si>
+    <t>pepe mukhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bazer </t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +496,12 @@
       <c r="B4">
         <v>35</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -526,6 +538,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>360</v>
+      </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
@@ -547,6 +565,14 @@
       </c>
       <c r="G9">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">bazer </t>
+  </si>
+  <si>
+    <t>Mas</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +519,12 @@
       <c r="B5">
         <v>25</v>
       </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>220</v>
+      </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bua </t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +551,12 @@
       <c r="B6">
         <v>15</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -553,6 +571,12 @@
       <c r="B7">
         <v>360</v>
       </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
@@ -561,6 +585,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -582,6 +612,14 @@
       </c>
       <c r="G10">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/September.xlsx
+++ b/September.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -43,9 +43,6 @@
     <t>pepe</t>
   </si>
   <si>
-    <t>kakrol</t>
-  </si>
-  <si>
     <t>rosun</t>
   </si>
   <si>
@@ -83,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">bua </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>preperson</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +472,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>110</v>
@@ -492,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -512,7 +515,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -526,19 +529,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -546,13 +549,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -566,19 +569,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>310</v>
@@ -586,40 +589,88 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>980</v>
+      </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>890</v>
+      </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>SUM(E9-G18)</f>
+        <v>-167.33333333333326</v>
+      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B10-G18)</f>
+        <v>-257.33333333333326</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>SUM(G12-G18)</f>
+        <v>424.66666666666674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>SUM(E9,B10,G12)</f>
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <f>(E17/3)</f>
+        <v>1147.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/September.xlsx
+++ b/September.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Supty- Product</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>preperson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rana vai pabe </t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -484,7 +487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -507,7 +510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -527,7 +530,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -547,7 +550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -567,7 +570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -587,7 +590,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -601,7 +604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>SUM(E2:E8)</f>
         <v>980</v>
@@ -613,7 +616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(B2:B9)</f>
         <v>890</v>
@@ -625,7 +628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E9-G18)</f>
         <v>-167.33333333333326</v>
@@ -637,7 +640,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B10-G18)</f>
         <v>-257.33333333333326</v>
@@ -647,13 +650,19 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <f>SUM(G12-G18)</f>
         <v>424.66666666666674</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>22</v>
       </c>
